--- a/docs/data/Amazonia-all.xlsx
+++ b/docs/data/Amazonia-all.xlsx
@@ -6036,9 +6036,41 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AJ513" totalsRowShown="0">
   <autoFilter ref="A1:AJ513">
-    <filterColumn colId="5">
+    <filterColumn colId="7">
       <filters>
-        <filter val="Bolivia"/>
+        <filter val="Garda parque oficial"/>
+        <filter val="Gardaparque"/>
+        <filter val="Gaurdaparque"/>
+        <filter val="GUARADAPARQUE"/>
+        <filter val="Guarda Parque"/>
+        <filter val="Guarda parque  Ofecial"/>
+        <filter val="Guarda parque de áreas protegidas"/>
+        <filter val="Guarda parque II"/>
+        <filter val="Guarda parque ll"/>
+        <filter val="Guarda parque Ofecial"/>
+        <filter val="Guarda Parque Oficial"/>
+        <filter val="Guardapaque"/>
+        <filter val="Guardapaque oficial"/>
+        <filter val="Guardapargues"/>
+        <filter val="Guardaparque"/>
+        <filter val="Guarda-Parque"/>
+        <filter val="Guardaparqué"/>
+        <filter val="Guardaparque  lll."/>
+        <filter val="Guardaparque - RCASH"/>
+        <filter val="Guardaparque 2"/>
+        <filter val="Guardaparque coordinador"/>
+        <filter val="Guardaparque II"/>
+        <filter val="Guardaparque líderes por la vida"/>
+        <filter val="Guardaparque lll"/>
+        <filter val="Guardaparque oficial"/>
+        <filter val="Guardaparque Oficial Respomsable"/>
+        <filter val="Guardaparque Responsable"/>
+        <filter val="Guardaparque."/>
+        <filter val="GUARDAPARQUE-CHOFER"/>
+        <filter val="Guardaparques"/>
+        <filter val="Guardaparques."/>
+        <filter val="Guarparque"/>
+        <filter val="Guatda parque"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6383,8 +6415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E514" sqref="E514"/>
+    <sheetView tabSelected="1" topLeftCell="AF32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AH32" sqref="AH32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8712,7 +8744,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8932,7 +8964,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9152,7 +9184,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9259,7 +9291,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9369,7 +9401,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9476,7 +9508,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="29" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9586,7 +9618,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9696,7 +9728,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9806,7 +9838,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9916,7 +9948,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10026,7 +10058,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10136,7 +10168,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10243,7 +10275,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="36" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10353,7 +10385,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10573,7 +10605,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10680,7 +10712,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="40" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10787,7 +10819,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10897,7 +10929,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11447,7 +11479,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11884,7 +11916,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12211,7 +12243,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="54" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -13088,7 +13120,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13198,7 +13230,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="63" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13415,7 +13447,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13632,7 +13664,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="67" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13849,7 +13881,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -14066,7 +14098,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="71" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14723,7 +14755,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="77" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14833,7 +14865,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14943,7 +14975,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -15160,7 +15192,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="81" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -15377,7 +15409,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="83" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -15487,7 +15519,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="84" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -15597,7 +15629,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="85" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -15707,7 +15739,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="86" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -15817,7 +15849,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -16144,7 +16176,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="90" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -17455,7 +17487,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -17785,7 +17817,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -17892,7 +17924,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="106" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -18222,7 +18254,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="109" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -18772,7 +18804,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="114" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -18986,7 +19018,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="116" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -19203,7 +19235,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="118" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -19313,7 +19345,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="119" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -19423,7 +19455,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -19533,7 +19565,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="121" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -19750,7 +19782,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -19860,7 +19892,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -19970,7 +20002,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="125" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -20080,7 +20112,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="126" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -20300,7 +20332,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="128" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -20410,7 +20442,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="129" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -20737,7 +20769,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="132" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -20954,7 +20986,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="134" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -21061,7 +21093,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="135" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -21171,7 +21203,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -21391,7 +21423,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="138" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -21501,7 +21533,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="139" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -21611,7 +21643,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -21721,7 +21753,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -21941,7 +21973,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="143" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -22271,7 +22303,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="146" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -22491,7 +22523,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -22818,7 +22850,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="151" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -22928,7 +22960,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="152" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -23255,7 +23287,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="155" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -23585,7 +23617,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="158" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -23805,7 +23837,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="160" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -23915,7 +23947,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="161" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -24025,7 +24057,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="162" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -24135,7 +24167,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="163" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -24242,7 +24274,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="164" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -24462,7 +24494,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -24569,7 +24601,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -24789,7 +24821,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -24899,7 +24931,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="170" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -25009,7 +25041,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="171" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -25116,7 +25148,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="172" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -25223,7 +25255,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -25330,7 +25362,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="174" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -25547,7 +25579,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="176" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -25654,7 +25686,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -25764,7 +25796,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -25874,7 +25906,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="179" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -25981,7 +26013,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="180" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -26091,7 +26123,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -26201,7 +26233,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -27289,7 +27321,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -27509,7 +27541,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="194" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -27946,7 +27978,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -28056,7 +28088,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="199" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -28166,7 +28198,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="200" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -28603,7 +28635,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -28713,7 +28745,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="205" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -28933,7 +28965,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="207" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -29043,7 +29075,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="208" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -29587,7 +29619,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -29697,7 +29729,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="214" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -29807,7 +29839,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="215" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -29917,7 +29949,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="216" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -30137,7 +30169,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="218" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -30247,7 +30279,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="219" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -30354,7 +30386,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="220" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -31008,7 +31040,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -31228,7 +31260,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="228" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -31445,7 +31477,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -31995,7 +32027,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -32322,7 +32354,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -32539,7 +32571,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="240" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -34177,7 +34209,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -34727,7 +34759,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="260" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -35497,7 +35529,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="267" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -35607,7 +35639,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="268" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -35717,7 +35749,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="269" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -36368,7 +36400,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="275" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -36588,7 +36620,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="277" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -37022,7 +37054,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="281" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -37132,7 +37164,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="282" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -37352,7 +37384,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="284" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -37462,7 +37494,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="285" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -37572,7 +37604,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="286" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -37679,7 +37711,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="287" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -38119,7 +38151,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="291" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -38553,7 +38585,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="295" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -38880,7 +38912,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="298" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -39210,7 +39242,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="301" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -39430,7 +39462,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="303" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -39540,7 +39572,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="304" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -39870,7 +39902,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="307" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -39980,7 +40012,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="308" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -40087,7 +40119,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="309" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -40194,7 +40226,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="310" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -40301,7 +40333,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="311" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -40411,7 +40443,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="312" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -40521,7 +40553,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="313" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -40628,7 +40660,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="314" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -40735,7 +40767,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="315" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -40845,7 +40877,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="316" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -41062,7 +41094,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="318" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -41172,7 +41204,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="319" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -41279,7 +41311,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="320" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -41389,7 +41421,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="321" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -41499,7 +41531,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="322" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -41606,7 +41638,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="323" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -41823,7 +41855,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="325" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -41930,7 +41962,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="326" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -42040,7 +42072,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="327" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -42147,7 +42179,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="328" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -42254,7 +42286,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="329" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -42364,7 +42396,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="330" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -42474,7 +42506,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="331" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -42581,7 +42613,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="332" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -42691,7 +42723,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="333" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -42801,7 +42833,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="334" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -42911,7 +42943,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="335" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -43021,7 +43053,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="336" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -43131,7 +43163,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="337" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -43241,7 +43273,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="338" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -43348,7 +43380,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="339" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -43568,7 +43600,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="341" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -43678,7 +43710,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="342" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -43788,7 +43820,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="343" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -43898,7 +43930,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="344" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -44008,7 +44040,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="345" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -45854,7 +45886,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="362" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -45964,7 +45996,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="363" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -50114,7 +50146,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="401" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -50224,7 +50256,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="402" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -50334,7 +50366,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="403" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -50444,7 +50476,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="404" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -50554,7 +50586,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="405" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -50661,7 +50693,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="406" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -50768,7 +50800,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="407" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -50878,7 +50910,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="408" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -50985,7 +51017,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="409" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -51095,7 +51127,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="410" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -51205,7 +51237,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="411" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -51312,7 +51344,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="412" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -51422,7 +51454,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="413" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>413</v>
       </c>
@@ -51529,7 +51561,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="414" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>414</v>
       </c>
@@ -51636,7 +51668,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="415" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>415</v>
       </c>
@@ -51746,7 +51778,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="416" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>416</v>
       </c>
@@ -51856,7 +51888,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="417" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>417</v>
       </c>
@@ -51966,7 +51998,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="418" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>418</v>
       </c>
@@ -52076,7 +52108,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="419" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>419</v>
       </c>
@@ -52183,7 +52215,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="420" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>420</v>
       </c>
@@ -52620,7 +52652,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="424" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>424</v>
       </c>
@@ -52730,7 +52762,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="425" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>425</v>
       </c>

--- a/docs/data/Amazonia-all.xlsx
+++ b/docs/data/Amazonia-all.xlsx
@@ -6431,8 +6431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK513"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
